--- a/Web/Template/ImportKhach_Template.xlsx
+++ b/Web/Template/ImportKhach_Template.xlsx
@@ -1658,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1674,7 +1674,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,14 +1985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2015,7 +2019,7 @@
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2083,7 +2087,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Web/Template/ImportKhach_Template.xlsx
+++ b/Web/Template/ImportKhach_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="813"/>
@@ -1635,13 +1635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,14 +1671,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,7 +1739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1774,7 +1774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1986,13 +1986,13 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2016,78 +2016,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
